--- a/Assets/OriginalDatas/Mission.xlsx
+++ b/Assets/OriginalDatas/Mission.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -255,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,13 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,9 +305,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,699 +593,700 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4:AE7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="17.75" customWidth="1"/>
-    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="17.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0.1</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.1</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-      <c r="K4">
-        <v>0.1</v>
-      </c>
-      <c r="L4">
-        <v>0.1</v>
-      </c>
-      <c r="M4">
-        <v>0.1</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>4</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
-      <c r="K5">
-        <v>0.1</v>
-      </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>3</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-      <c r="AE5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-      <c r="I6">
-        <v>0.1</v>
-      </c>
-      <c r="J6">
-        <v>0.1</v>
-      </c>
-      <c r="K6">
-        <v>0.1</v>
-      </c>
-      <c r="L6">
-        <v>0.1</v>
-      </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6">
-        <v>4</v>
-      </c>
-      <c r="Y6">
-        <v>4</v>
-      </c>
-      <c r="Z6">
-        <v>4</v>
-      </c>
-      <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>4</v>
-      </c>
-      <c r="AD6">
-        <v>4</v>
-      </c>
-      <c r="AE6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-      <c r="I7">
-        <v>0.1</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
-      <c r="K7">
-        <v>0.1</v>
-      </c>
-      <c r="L7">
-        <v>0.1</v>
-      </c>
-      <c r="M7">
-        <v>0.1</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <v>5</v>
-      </c>
-      <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7">
-        <v>5</v>
-      </c>
-      <c r="Z7">
-        <v>5</v>
-      </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>4</v>
-      </c>
-      <c r="AD7">
-        <v>5</v>
-      </c>
-      <c r="AE7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/OriginalDatas/Mission.xlsx
+++ b/Assets/OriginalDatas/Mission.xlsx
@@ -95,22 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>人类物理攻击力增幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类魔法攻击力增幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类物理防御力增幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类魔法防御力增幅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人类移动速度增幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,22 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Atk_P_Boost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk_M_Boost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def_P_Boost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def_M_Boost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed_Boost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +217,82 @@
   <si>
     <t>InfectionBoost</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk_Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Boost</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def_Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Boost</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类攻击力增幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类治疗力增幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类防御力增幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类治愈力增幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -305,10 +349,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,22 +681,22 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -657,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
@@ -666,16 +714,16 @@
         <v>17</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>2</v>
@@ -696,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>7</v>
@@ -725,94 +773,94 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AE2" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
